--- a/target/classes/test/each_template.xlsx
+++ b/target/classes/test/each_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BBA47F-A99D-4432-AC45-AB49634B6511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E52227-C213-40C8-AC92-5C021098D0E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,12 +56,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{88166B70-6EDC-45BE-8C8A-123224FFA090}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="Q5" items="arr" var="obj" direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{E1C53C34-3338-4786-87C8-7782A20C7178}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:each(lastCell="H15", items="sub", var="ur", direction="DOWN")</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>Each Demo</t>
   </si>
@@ -73,13 +99,25 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR001")}</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR007")}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +138,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,11 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,38 +472,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/test/each_template.xlsx
+++ b/target/classes/test/each_template.xlsx
@@ -8,17 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E52227-C213-40C8-AC92-5C021098D0E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614F48A-C208-411B-8A23-D1A14B28855F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,8 +93,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MauroWB</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CD5D9770-F123-4F97-BD96-310F57F60806}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="J11")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6538981A-A342-4418-8258-D98FB450C41E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:each(lastCell="J9", items="sub", var="ur")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Each Demo</t>
   </si>
@@ -111,13 +154,46 @@
   </si>
   <si>
     <t>${ur.getValueForColumnCode("STR007")}</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR004")}</t>
+  </si>
+  <si>
+    <t>Generatore x</t>
+  </si>
+  <si>
+    <t>Potenza 1</t>
+  </si>
+  <si>
+    <t>Potenza 2</t>
+  </si>
+  <si>
+    <t>Potenza 3</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR008")}</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR006")}</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR005")}</t>
+  </si>
+  <si>
+    <t>Potenza1</t>
+  </si>
+  <si>
+    <t>Potenza2</t>
+  </si>
+  <si>
+    <t>I=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +220,56 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lao UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lao UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Lao UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -160,12 +279,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -182,22 +307,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,22 +772,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -500,26 +800,26 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -583,6 +883,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
@@ -594,7 +904,216 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ED5416-779C-49DA-812A-1D6D84DBC9BC}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="29" t="e">
+        <f>SUM(I6+J6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I7:I8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/target/classes/test/each_template.xlsx
+++ b/target/classes/test/each_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614F48A-C208-411B-8A23-D1A14B28855F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1806DF4-85A7-4C0C-89A9-D4FAA9EB38ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +289,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF06510"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -460,11 +466,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -478,15 +482,17 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,6 +501,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF06510"/>
       <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
@@ -775,7 +782,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +899,14 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -956,159 +971,159 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="13.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10">
+      <c r="A2" s="29"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="28" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="29" t="e">
+      <c r="J7" s="25" t="e">
         <f>SUM(I6+J6)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
